--- a/ru/downloads/data-excel/6.2.1.xlsx
+++ b/ru/downloads/data-excel/6.2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -314,7 +314,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +428,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -492,7 +501,7 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -586,6 +595,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Normal 17" xfId="3"/>
@@ -8266,7 +8276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8317,7 +8329,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1">
+    <row r="5" spans="1:4" s="37" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -8327,7 +8339,7 @@
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="34">
         <v>96.3</v>
       </c>
     </row>

--- a/ru/downloads/data-excel/6.2.1.xlsx
+++ b/ru/downloads/data-excel/6.2.1.xlsx
@@ -57,15 +57,6 @@
     <t xml:space="preserve"> 6.2.1 Доля населения, использующего организованные с соблюдением требований безопасности услуги санитарии, включая устройства для мытья рук с мылом и водой </t>
   </si>
   <si>
-    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>По данным кластерного обследования по многим показателям, 2018г.</t>
-  </si>
-  <si>
-    <t>According to the cluster survey in many respects, 2018.</t>
-  </si>
-  <si>
     <t>6.2.1 Proportion of population using safely managed sanitation services and a hand-washing facility with soap and water</t>
   </si>
   <si>
@@ -304,6 +295,15 @@
   </si>
   <si>
     <t>Жайлуу абалдын индексинин квинтили</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2014- ж., 2018-ж., 2023-ж.</t>
+  </si>
+  <si>
+    <t>По данным кластерного обследования по многим показателям, 2014г., 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t>According to Multiple Indicator Cluster Survey, 2014, 2018, 2023.</t>
   </si>
 </sst>
 </file>
@@ -8274,11 +8274,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8287,18 +8285,18 @@
     <col min="3" max="3" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="70.5" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8309,13 +8307,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
@@ -8326,374 +8324,520 @@
         <v>5</v>
       </c>
       <c r="D4" s="28">
+        <v>2014</v>
+      </c>
+      <c r="E4" s="28">
         <v>2018</v>
       </c>
+      <c r="F4" s="28">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" s="37" customFormat="1" ht="19.5" customHeight="1">
+    <row r="5" spans="1:6" s="37" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="34">
+        <v>94.5</v>
+      </c>
+      <c r="E5" s="34">
+        <v>96.3</v>
+      </c>
+      <c r="F5" s="34">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="29">
+        <v>96.8</v>
+      </c>
+      <c r="E7" s="29">
+        <v>96.1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="29">
+        <v>93</v>
+      </c>
+      <c r="E8" s="29">
+        <v>96.5</v>
+      </c>
+      <c r="F8" s="29">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="29">
+        <v>91.8</v>
+      </c>
+      <c r="E10" s="29">
+        <v>99.6</v>
+      </c>
+      <c r="F10" s="29">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="29">
+        <v>93</v>
+      </c>
+      <c r="E11" s="29">
+        <v>93.4</v>
+      </c>
+      <c r="F11" s="29">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="34">
-        <v>96.3</v>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="29">
+        <v>95.2</v>
+      </c>
+      <c r="E12" s="29">
+        <v>99.1</v>
+      </c>
+      <c r="F12" s="29">
+        <v>98.7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="22" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="29">
+        <v>97.3</v>
+      </c>
+      <c r="E13" s="29">
+        <v>99.4</v>
+      </c>
+      <c r="F13" s="29">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="29">
+        <v>94.3</v>
+      </c>
+      <c r="E14" s="29">
+        <v>99.1</v>
+      </c>
+      <c r="F14" s="29">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="29">
+        <v>91</v>
+      </c>
+      <c r="E15" s="29">
+        <v>99.8</v>
+      </c>
+      <c r="F15" s="29">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="29">
+        <v>92.7</v>
+      </c>
+      <c r="E16" s="29">
+        <v>91.6</v>
+      </c>
+      <c r="F16" s="29">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="29">
+        <v>99.1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>95.7</v>
+      </c>
+      <c r="F17" s="29">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="30">
+        <v>92.4</v>
+      </c>
+      <c r="E18" s="30">
+        <v>96.8</v>
+      </c>
+      <c r="F18" s="30">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="29">
+        <v>95.1</v>
+      </c>
+      <c r="E20" s="29">
+        <v>92.1</v>
+      </c>
+      <c r="F20" s="29">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="29">
+        <v>90.6</v>
+      </c>
+      <c r="E21" s="29">
+        <v>94.7</v>
+      </c>
+      <c r="F21" s="29">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="29">
+        <v>93.6</v>
+      </c>
+      <c r="E22" s="29">
+        <v>97.4</v>
+      </c>
+      <c r="F22" s="29">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="29">
+        <v>95.6</v>
+      </c>
+      <c r="E23" s="29">
+        <v>96.6</v>
+      </c>
+      <c r="F23" s="29">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="30">
+        <v>97.4</v>
+      </c>
+      <c r="E24" s="30">
+        <v>95.1</v>
+      </c>
+      <c r="F24" s="30">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="29">
+        <v>88.2</v>
+      </c>
+      <c r="E26" s="29">
+        <v>97.2</v>
+      </c>
+      <c r="F26" s="29">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="29">
-        <v>96.1</v>
+      <c r="D27" s="29">
+        <v>93.4</v>
+      </c>
+      <c r="E27" s="29">
+        <v>95.9</v>
+      </c>
+      <c r="F27" s="29">
+        <v>97.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="D28" s="29">
+        <v>95.1</v>
+      </c>
+      <c r="E28" s="29">
         <v>96.5</v>
       </c>
+      <c r="F28" s="29">
+        <v>98.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="34"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="29">
+        <v>95.8</v>
+      </c>
+      <c r="E29" s="29">
+        <v>96.4</v>
+      </c>
+      <c r="F29" s="29">
+        <v>99</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="29">
-        <v>99.6</v>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A30" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="33">
+        <v>97.9</v>
+      </c>
+      <c r="E30" s="33">
+        <v>95.7</v>
+      </c>
+      <c r="F30" s="33">
+        <v>97.6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="29">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="29">
-        <v>99.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="29">
-        <v>99.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="29">
-        <v>99.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="29">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="29">
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="29">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="30">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="23" t="s">
+    <row r="31" spans="1:6" ht="22.5">
+      <c r="A31" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="29">
-        <v>92.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="29">
-        <v>94.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="29">
-        <v>97.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="29">
-        <v>96.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="30">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="23" t="s">
+      <c r="C31" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="29">
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="29">
-        <v>95.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="29">
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="29">
-        <v>96.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A30" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="33">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="22.5">
-      <c r="A31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="D31" s="4"/>
     </row>
